--- a/data/respirometry/middle/final_rates/600_rates.xlsx
+++ b/data/respirometry/middle/final_rates/600_rates.xlsx
@@ -578,24 +578,24 @@
         </is>
       </c>
       <c r="T2">
-        <v>0.15444</v>
+        <v>0.1426048780487805</v>
       </c>
       <c r="V2">
-        <v>0.0025</v>
+        <v>0.0002220611491829204</v>
       </c>
       <c r="Z2">
-        <v>-0.2355354745773586</v>
+        <v>-0.2174858043788258</v>
       </c>
       <c r="AB2">
-        <v>-0.009421418983094343</v>
+        <v>-979.3960140216795</v>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD2">
-        <v>-0.009421418983094343</v>
+        <v>-979.3960140216795</v>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
@@ -665,24 +665,24 @@
         </is>
       </c>
       <c r="T3">
-        <v>0.15444</v>
+        <v>0.1423414634146342</v>
       </c>
       <c r="V3">
-        <v>0.0025</v>
+        <v>0.0002565454225970831</v>
       </c>
       <c r="Z3">
-        <v>-0.209758230213996</v>
+        <v>-0.1933261684273758</v>
       </c>
       <c r="AB3">
-        <v>-0.00839032920855984</v>
+        <v>-753.5748113152024</v>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD3">
-        <v>-0.00839032920855984</v>
+        <v>-753.5748113152024</v>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
@@ -752,24 +752,24 @@
         </is>
       </c>
       <c r="T4">
-        <v>0.15444</v>
+        <v>0.1477268292682927</v>
       </c>
       <c r="V4">
-        <v>0.0025</v>
+        <v>0.0002491214197856265</v>
       </c>
       <c r="Z4">
-        <v>-0.1835898465645779</v>
+        <v>-0.1756095954340679</v>
       </c>
       <c r="AB4">
-        <v>-0.007343593862583117</v>
+        <v>-704.9156816189599</v>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD4">
-        <v>-0.007343593862583117</v>
+        <v>-704.9156816189599</v>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
@@ -839,24 +839,24 @@
         </is>
       </c>
       <c r="T5">
-        <v>0.15444</v>
+        <v>0.1470341463414634</v>
       </c>
       <c r="V5">
-        <v>0.0025</v>
+        <v>0.0002082674398172554</v>
       </c>
       <c r="Z5">
-        <v>-0.2124071898592915</v>
+        <v>-0.2022216384210701</v>
       </c>
       <c r="AB5">
-        <v>-0.008496287594371659</v>
+        <v>-970.9709717395569</v>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD5">
-        <v>-0.008496287594371659</v>
+        <v>-970.9709717395569</v>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
@@ -926,24 +926,24 @@
         </is>
       </c>
       <c r="T6">
-        <v>0.15444</v>
+        <v>0.1477560975609756</v>
       </c>
       <c r="V6">
-        <v>0.0025</v>
+        <v>0.0001607142857142857</v>
       </c>
       <c r="Z6">
-        <v>-0.2079796755205401</v>
+        <v>-0.1989786663229278</v>
       </c>
       <c r="AB6">
-        <v>-0.008319187020821604</v>
+        <v>-1238.089479342662</v>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD6">
-        <v>-0.008319187020821604</v>
+        <v>-1238.089479342662</v>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
@@ -1013,24 +1013,24 @@
         </is>
       </c>
       <c r="T7">
-        <v>0.15444</v>
+        <v>0.1455317073170732</v>
       </c>
       <c r="V7">
-        <v>0.0025</v>
+        <v>0.0002247627833421192</v>
       </c>
       <c r="Z7">
-        <v>-0.1356584901783952</v>
+        <v>-0.1278335385115142</v>
       </c>
       <c r="AB7">
-        <v>-0.005426339607135806</v>
+        <v>-568.7486896660039</v>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD7">
-        <v>-0.005426339607135806</v>
+        <v>-568.7486896660039</v>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
@@ -1100,24 +1100,18 @@
         </is>
       </c>
       <c r="T8">
-        <v>0.15444</v>
+        <v>0.1544</v>
       </c>
       <c r="V8">
-        <v>0.0025</v>
+        <v>0</v>
       </c>
       <c r="Z8">
         <v>0</v>
       </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
-        </is>
-      </c>
-      <c r="AD8">
-        <v>0</v>
+          <t>umolO2/min/m2</t>
+        </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
@@ -1187,24 +1181,24 @@
         </is>
       </c>
       <c r="T9">
-        <v>0.15444</v>
+        <v>0.1426048780487805</v>
       </c>
       <c r="V9">
-        <v>0.0025</v>
+        <v>0.0002220611491829204</v>
       </c>
       <c r="Z9">
-        <v>0.1996803656217805</v>
+        <v>0.1843783617471505</v>
       </c>
       <c r="AB9">
-        <v>0.007987214624871222</v>
+        <v>830.3044563426573</v>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD9">
-        <v>0.007987214624871222</v>
+        <v>830.3044563426573</v>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
@@ -1274,24 +1268,24 @@
         </is>
       </c>
       <c r="T10">
-        <v>0.15444</v>
+        <v>0.1423414634146342</v>
       </c>
       <c r="V10">
-        <v>0.0025</v>
+        <v>0.0002565454225970831</v>
       </c>
       <c r="Z10">
-        <v>0.1385668717592863</v>
+        <v>0.1277118059246617</v>
       </c>
       <c r="AB10">
-        <v>0.005542674870371451</v>
+        <v>497.8136215871573</v>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD10">
-        <v>0.005542674870371451</v>
+        <v>497.8136215871573</v>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
@@ -1361,24 +1355,24 @@
         </is>
       </c>
       <c r="T11">
-        <v>0.15444</v>
+        <v>0.1477268292682927</v>
       </c>
       <c r="V11">
-        <v>0.0025</v>
+        <v>0.0002491214197856265</v>
       </c>
       <c r="Z11">
-        <v>0.2653331195735813</v>
+        <v>0.2537996662423591</v>
       </c>
       <c r="AB11">
-        <v>0.01061332478294325</v>
+        <v>1018.778981192217</v>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD11">
-        <v>0.01061332478294325</v>
+        <v>1018.778981192217</v>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
@@ -1448,24 +1442,24 @@
         </is>
       </c>
       <c r="T12">
-        <v>0.15444</v>
+        <v>0.1470341463414634</v>
       </c>
       <c r="V12">
-        <v>0.0025</v>
+        <v>0.0002082674398172554</v>
       </c>
       <c r="Z12">
-        <v>0.2954999735663729</v>
+        <v>0.2813298779931148</v>
       </c>
       <c r="AB12">
-        <v>0.01181999894265491</v>
+        <v>1350.810660754116</v>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD12">
-        <v>0.01181999894265491</v>
+        <v>1350.810660754116</v>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
@@ -1535,24 +1529,24 @@
         </is>
       </c>
       <c r="T13">
-        <v>0.15444</v>
+        <v>0.1477560975609756</v>
       </c>
       <c r="V13">
-        <v>0.0025</v>
+        <v>0.0001607142857142857</v>
       </c>
       <c r="Z13">
-        <v>0.2291464405449097</v>
+        <v>0.2192293694956227</v>
       </c>
       <c r="AB13">
-        <v>0.009165857621796386</v>
+        <v>1364.09385463943</v>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD13">
-        <v>0.009165857621796386</v>
+        <v>1364.09385463943</v>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
@@ -1622,24 +1616,24 @@
         </is>
       </c>
       <c r="T14">
-        <v>0.15444</v>
+        <v>0.1455317073170732</v>
       </c>
       <c r="V14">
-        <v>0.0025</v>
+        <v>0.0002247627833421192</v>
       </c>
       <c r="Z14">
-        <v>0.1315855308153882</v>
+        <v>0.123995512547182</v>
       </c>
       <c r="AB14">
-        <v>0.005263421232615529</v>
+        <v>551.6727934377117</v>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD14">
-        <v>0.005263421232615529</v>
+        <v>551.6727934377117</v>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
@@ -1709,24 +1703,28 @@
         </is>
       </c>
       <c r="T15">
-        <v>0.15444</v>
+        <v>0.1544</v>
       </c>
       <c r="V15">
-        <v>0.0025</v>
+        <v>0</v>
       </c>
       <c r="Z15">
-        <v>0.001696093394824798</v>
-      </c>
-      <c r="AB15">
-        <v>6.784373579299193E-05</v>
+        <v>0.00169565410619625</v>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
-        </is>
-      </c>
-      <c r="AD15">
-        <v>6.784373579299193E-05</v>
+          <t>umolO2/min/m2</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
